--- a/MangoServer/upload_template/元素批量上传模版.xlsx
+++ b/MangoServer/upload_template/元素批量上传模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>等待时间（秒）</t>
   </si>
   <si>
-    <t>元素下班（1开始）</t>
+    <t>元素下表（1开始）</t>
   </si>
 </sst>
 </file>
@@ -1011,14 +1011,14 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
   </cols>
@@ -1043,7 +1043,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"XPATH,W_TestID,定位器,W_文本,W_占位符,W_标签,W_标题,W_ROLE,W_AIT_TEXT,W_CSS,A_DESCRIPTION,A_BOUNDS,A_resourceId"</formula1>
+      <formula1>"XPATH,通用定位器,WEB_文本,WEB_占位符,WEB_CSS,安卓_description,安卓_bounds,安卓_resourceId"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1061,7 +1061,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1078,7 +1078,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/MangoServer/upload_template/元素批量上传模版.xlsx
+++ b/MangoServer/upload_template/元素批量上传模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>等待时间（秒）</t>
   </si>
   <si>
-    <t>元素下表（1开始）</t>
+    <t>元素下标（1开始）</t>
   </si>
 </sst>
 </file>
@@ -1011,19 +1011,19 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:5">
+    <row r="1" ht="18" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1078,7 +1078,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
